--- a/docs/test_workbook.xlsx
+++ b/docs/test_workbook.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="11840" yWindow="2160" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -455,6 +455,9 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
